--- a/result/RQ1-manual score.xlsx
+++ b/result/RQ1-manual score.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732373DF-2B5C-4E16-8D2E-1B247105A565}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAC8BE5-25F7-4ACB-879F-7856D9D66282}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -176,9 +176,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="1"/>
               <a:t>Score1</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1050" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -988,7 +989,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1096,7 +1097,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1194,7 +1195,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="1"/>
               <a:t>Score2</a:t>
             </a:r>
           </a:p>
@@ -2006,7 +2007,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2110,7 +2111,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2208,7 +2209,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="1"/>
               <a:t>Score3</a:t>
             </a:r>
           </a:p>
@@ -3020,7 +3021,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3124,7 +3125,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4935,13 +4936,13 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5234,8 +5235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D101"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
